--- a/biology/Botanique/Parc_aquatique_de_Sapokka/Parc_aquatique_de_Sapokka.xlsx
+++ b/biology/Botanique/Parc_aquatique_de_Sapokka/Parc_aquatique_de_Sapokka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc aquatique de Sapokka (en finnois : Sapokan vesipuisto) est un parc de la ville de Kotka en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc aquatique de Sapokka (en finnois : Sapokan vesipuisto) est un parc de la ville de Kotka en Finlande.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc couvrant environ trois hectares est situé à Kotkansaari au centre de Kotka.
 Sapokanlahti est un parc depuis 1917 mais la construction du parc aquatique actuel a commencé en 1990 par le concepteur principal Heikki Laaksonen, jardinier urbain à Kotka. 
@@ -543,7 +557,9 @@
           <t>Prix et reconnaissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc a été récompensé par le prix de l'éclairage de l'année 1993, le prix l'environnement de l'année 1994 et le prix du travail de la pierre de l'année 1996.
 </t>
